--- a/Data/Input/PaymentTransactionTypes - Prod.xlsx
+++ b/Data/Input/PaymentTransactionTypes - Prod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpatel\Documents\UiPath\ESWNikeDailyRefunds\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38D3933-2F28-4ABE-916E-1B7B86B75492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F205FB-4E4E-4E0D-A6C0-9A3BCC3EDF25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
   <si>
     <t>eSW Return Refund</t>
   </si>
@@ -146,12 +146,6 @@
     <t>Email Address</t>
   </si>
   <si>
-    <t>Hiren Patel</t>
-  </si>
-  <si>
-    <t>hpatel@eshopworld.com</t>
-  </si>
-  <si>
     <t>mking@eshopworld.com</t>
   </si>
   <si>
@@ -170,16 +164,19 @@
     <t>Adam McCormack</t>
   </si>
   <si>
-    <t>hiren.patel@uipath.com</t>
-  </si>
-  <si>
-    <t>M~=IFERROR(VLOOKUP(C{0},'Email Refunds'!E:H,4,FALSE),"-")¶N~=IFERROR(VLOOKUP(TRIM(C{0}),TRIM(Fraud!C:G),5,FALSE),"-")</t>
-  </si>
-  <si>
     <t>K~=LOOKUP(9.9E+307,--LEFT(MID(I{0},MIN(FIND({1,2,3,4,5,6,7,8,9,0}, $I{0}&amp;"1023456789")),999),ROW(INDIRECT("1:999"))))¶L~=RIGHT(I{0},LEN(I{0})-FIND(" ",I{0},1))¶M~=IFERROR(VLOOKUP($C{0},donotprocess!$A:$B,2,FALSE),"-")¶N~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶O~=IFERROR(VLOOKUP(C{0},'Refunds - FIN'!C:E,3,0),"-")</t>
   </si>
   <si>
-    <t>L~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶M~=IF(OR(C{0}=LOOKUP(C{0},donotprocess!$A:$A),C{0}=LOOKUP(C{0},'Email Refunds'!$E:$E))=TRUE,"bank details changed","-")¶N~=IFERROR(VLOOKUP($C{0},'Email Refunds'!B:J,4,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},'MR-FIN'!C:K,4,FALSE),"-")</t>
+    <t>bwilliams@eshopworld.com</t>
+  </si>
+  <si>
+    <t>Babajide Wiliams</t>
+  </si>
+  <si>
+    <t>L~=IFERROR(VLOOKUP(TRIM($C{0}),TRIM(Fraud!$C:$G),5,FALSE),"-")¶M~=IF(OR(IFERROR(C{0}=VLOOKUP(C{0},donotprocess!$A:$A,1,0),"False"),IFERROR(C{0}=VLOOKUP(C{0},'Email Refunds'!$E:$E,1,0),"False"))=TRUE,"bank details changed","-")¶N~=IFERROR(VLOOKUP($C{0},'Email Refunds'!B:J,4,FALSE),"-")¶O~=IFERROR(VLOOKUP($C{0},'MR-FIN'!C:K,4,FALSE),"-")</t>
+  </si>
+  <si>
+    <t>M~=IF(OR(IFERROR(C{0}=VLOOKUP(C{0},donotprocess!$A:$A,1,0),"False"),IFERROR(C{0}=VLOOKUP(C{0},'Email Refunds'!$E:$E,1,0),"False"))=TRUE,"bank details changed","-")¶N~=IFERROR(VLOOKUP(TRIM(C{0}),TRIM(Fraud!C:G),5,FALSE),"-")</t>
   </si>
 </sst>
 </file>
@@ -513,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D0C3AA-5529-4D71-AAA7-A99999E9619A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +721,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -732,7 +729,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -740,7 +737,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -751,10 +748,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2925C6-D968-4F4F-941B-B3341CC9D29B}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,19 +769,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -795,49 +792,62 @@
         <v>33</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{8329E57F-0B6B-4A99-A38C-B9F1C2E2B623}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{064768AB-A5CF-4674-93D7-B751AD9880DA}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{FCE6C293-212D-4122-9B77-4D947B18A642}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{3C55B9EA-3DE7-46C2-96CF-FFF9645FCDF2}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{12E62AC1-951C-405E-BF86-644B7484C671}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{70C25742-C471-440E-9843-2176046FE85A}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{6A2AC785-7187-45E8-A5B3-B6909B540FCB}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{33305693-92C8-490E-897E-AAD5E4C22A95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3A7D5D-58F6-4694-9A38-5139D815B897}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A8" sqref="A8:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -848,55 +858,48 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -919,7 +922,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -942,30 +945,30 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -983,15 +986,39 @@
         <v>30</v>
       </c>
       <c r="G12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{11174173-82F8-4C4C-8043-75C0928E9BA3}"/>
-    <hyperlink ref="A1" r:id="rId2" xr:uid="{60E0AFAD-D230-4158-9E94-9231808D9AD8}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{60E0AFAD-D230-4158-9E94-9231808D9AD8}"/>
     <hyperlink ref="A2" r:id="rId3" xr:uid="{82EA9F7C-231A-46D4-B902-D33442EE119D}"/>
     <hyperlink ref="A3" r:id="rId4" xr:uid="{8AE62D0A-CF73-49CB-B8E1-B187B808C88D}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{4C6E8417-55BC-4C1B-8C8A-DEE5E0AA19AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Input/PaymentTransactionTypes - Prod.xlsx
+++ b/Data/Input/PaymentTransactionTypes - Prod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F205FB-4E4E-4E0D-A6C0-9A3BCC3EDF25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FB2F0B-5E97-44FF-8292-946701869CAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="51">
   <si>
     <t>eSW Return Refund</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>M~=IF(OR(IFERROR(C{0}=VLOOKUP(C{0},donotprocess!$A:$A,1,0),"False"),IFERROR(C{0}=VLOOKUP(C{0},'Email Refunds'!$E:$E,1,0),"False"))=TRUE,"bank details changed","-")¶N~=IFERROR(VLOOKUP(TRIM(C{0}),TRIM(Fraud!C:G),5,FALSE),"-")</t>
+  </si>
+  <si>
+    <t>Columns To Remove From Filtration</t>
+  </si>
+  <si>
+    <t>Column1,Authorisation,Processing,Status,Column2,FRAUD Check,Do not process,MR-Email,MR-Fin,Column3,Comments,Refund Date,Column4</t>
+  </si>
+  <si>
+    <t>Column1,Authorisation,Processing,Status,Column2,Column3,Manual refunded Yes/No,refunded by Fraud team?,Return Credit Memo,Column4,Refunded Yes-No,Comment,Refund Date</t>
+  </si>
+  <si>
+    <t>Authorisation,Processing,Status,Column1,Column2,Manual refund,Fraud,Column3,Refund Date</t>
   </si>
 </sst>
 </file>
@@ -508,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +537,7 @@
     <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -547,8 +559,11 @@
       <c r="G1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -570,8 +585,11 @@
       <c r="G2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -593,8 +611,11 @@
       <c r="G3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -616,8 +637,11 @@
       <c r="G4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -639,8 +663,11 @@
       <c r="G5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -662,8 +689,11 @@
       <c r="G6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -684,6 +714,9 @@
       </c>
       <c r="G7" t="s">
         <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -823,18 +856,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3A7D5D-58F6-4694-9A38-5139D815B897}">
-  <dimension ref="A2:G13"/>
+  <dimension ref="A2:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD13"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -842,7 +876,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
@@ -850,7 +884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -858,7 +892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -866,7 +900,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -874,7 +908,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -896,8 +930,11 @@
       <c r="G8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -919,8 +956,11 @@
       <c r="G9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -942,8 +982,11 @@
       <c r="G10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -965,8 +1008,11 @@
       <c r="G11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -988,8 +1034,11 @@
       <c r="G12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1010,6 +1059,9 @@
       </c>
       <c r="G13" t="s">
         <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
